--- a/2020_kidarifund_dataset_after.xlsx
+++ b/2020_kidarifund_dataset_after.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>대출금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윤지영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천예원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +307,6 @@
   </si>
   <si>
     <t>변민수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*2020년 구글드라이브 중 '굵게' 안된 사람은 서류가 누락됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -678,7 +670,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -727,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -751,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f ca="1">IFERROR(CHOOSE($F2,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ref="F2:F23" ca="1" si="0">IFERROR(CHOOSE($F2,5,1,2,2,3,4,5,6,7),"합의금")</f>
         <v>7</v>
       </c>
       <c r="G2">
@@ -789,14 +781,14 @@
         <v>450000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D52" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D23" si="1">B3-C3</f>
         <v>50000</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <f ca="1">IFERROR(CHOOSE($F3,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G3">
@@ -816,7 +808,7 @@
         <v>불량</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L51" si="1">IF($D3&gt;=0,1,IF($N3="O",1,0))</f>
+        <f t="shared" ref="L3:L23" si="2">IF($D3&gt;=0,1,IF($N3="O",1,0))</f>
         <v>1</v>
       </c>
       <c r="M3" t="s">
@@ -834,14 +826,14 @@
         <v>350000</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>850000</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f ca="1">IFERROR(CHOOSE($F4,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G4">
@@ -857,11 +849,11 @@
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K52" si="2">IF(G4=H4,"매우우수",IF(J4&gt;0,"불량", IF(I4/G4&lt;0.5,"우수","보통")))</f>
+        <f t="shared" ref="K4:K23" si="3">IF(G4=H4,"매우우수",IF(J4&gt;0,"불량", IF(I4/G4&lt;0.5,"우수","보통")))</f>
         <v>매우우수</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M4" t="s">
@@ -879,14 +871,14 @@
         <v>650000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <f ca="1">IFERROR(CHOOSE($F5,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G5">
@@ -902,11 +894,11 @@
         <v>0</v>
       </c>
       <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>보통</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>보통</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M5" t="s">
@@ -924,14 +916,14 @@
         <v>580000</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <f ca="1">IFERROR(CHOOSE($F6,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G6">
@@ -947,11 +939,11 @@
         <v>0</v>
       </c>
       <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -969,14 +961,14 @@
         <v>800000</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <f ca="1">IFERROR(CHOOSE($F7,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G7">
@@ -992,11 +984,11 @@
         <v>0</v>
       </c>
       <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7" t="s">
@@ -1014,14 +1006,14 @@
         <v>500000</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <f ca="1">IFERROR(CHOOSE($F8,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G8">
@@ -1037,11 +1029,11 @@
         <v>0</v>
       </c>
       <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M8" t="s">
@@ -1059,14 +1051,14 @@
         <v>780000</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <f ca="1">IFERROR(CHOOSE($F9,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G9">
@@ -1082,11 +1074,11 @@
         <v>0</v>
       </c>
       <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M9" t="s">
@@ -1104,14 +1096,14 @@
         <v>300000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <f ca="1">IFERROR(CHOOSE($F10,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G10">
@@ -1127,11 +1119,11 @@
         <v>0</v>
       </c>
       <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" t="s">
@@ -1149,15 +1141,14 @@
         <v>2000000</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="str">
-        <f ca="1">IFERROR(CHOOSE($F11,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>합의금</v>
+      <c r="F11">
+        <v>8</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1172,11 +1163,11 @@
         <v>0</v>
       </c>
       <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>보통</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>보통</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" t="s">
@@ -1194,14 +1185,14 @@
         <v>350000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <f ca="1">IFERROR(CHOOSE($F12,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G12">
@@ -1217,11 +1208,11 @@
         <v>1</v>
       </c>
       <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>불량</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>불량</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M12" t="s">
@@ -1239,14 +1230,14 @@
         <v>480000</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <f ca="1">IFERROR(CHOOSE($F13,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G13">
@@ -1262,11 +1253,11 @@
         <v>0</v>
       </c>
       <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>우수</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
-        <v>우수</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M13" t="s">
@@ -1284,14 +1275,14 @@
         <v>450000</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-180000</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <f ca="1">IFERROR(CHOOSE($F14,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G14">
@@ -1307,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>매우우수</v>
       </c>
       <c r="L14">
@@ -1328,14 +1319,14 @@
         <v>600000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <f ca="1">IFERROR(CHOOSE($F15,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G15">
@@ -1351,11 +1342,11 @@
         <v>0</v>
       </c>
       <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M15" t="s">
@@ -1373,14 +1364,14 @@
         <v>800000</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f ca="1">IFERROR(CHOOSE($F16,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G16">
@@ -1396,11 +1387,11 @@
         <v>0</v>
       </c>
       <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>우수</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="2"/>
-        <v>우수</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M16" t="s">
@@ -1418,14 +1409,14 @@
         <v>900000</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <f ca="1">IFERROR(CHOOSE($F17,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G17">
@@ -1441,11 +1432,11 @@
         <v>0</v>
       </c>
       <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M17" t="s">
@@ -1463,14 +1454,14 @@
         <v>700000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <f ca="1">IFERROR(CHOOSE($F18,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G18">
@@ -1486,11 +1477,11 @@
         <v>0</v>
       </c>
       <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>우수</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="2"/>
-        <v>우수</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M18" t="s">
@@ -1508,14 +1499,14 @@
         <v>760000</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140000</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <f ca="1">IFERROR(CHOOSE($F19,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G19">
@@ -1531,11 +1522,11 @@
         <v>1</v>
       </c>
       <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>불량</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="2"/>
-        <v>불량</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M19" t="s">
@@ -1553,14 +1544,14 @@
         <v>700000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <f ca="1">IFERROR(CHOOSE($F20,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G20">
@@ -1576,11 +1567,11 @@
         <v>0</v>
       </c>
       <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>매우우수</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="2"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M20" t="s">
@@ -1598,14 +1589,14 @@
         <v>250000</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <f ca="1">IFERROR(CHOOSE($F21,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G21">
@@ -1621,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>우수</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="2"/>
-        <v>우수</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M21" t="s">
@@ -1643,14 +1634,14 @@
         <v>500000</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-200000</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <f ca="1">IFERROR(CHOOSE($F22,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="G22">
@@ -1666,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>매우우수</v>
       </c>
       <c r="L22">
@@ -1687,14 +1678,14 @@
         <v>280000</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <f ca="1">IFERROR(CHOOSE($F23,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G23">
@@ -1710,11 +1701,11 @@
         <v>1</v>
       </c>
       <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v>불량</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="2"/>
-        <v>불량</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M23" t="s">
@@ -1723,27 +1714,30 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>300000</v>
+        <v>100000</v>
+      </c>
+      <c r="B24">
+        <v>585000</v>
       </c>
       <c r="C24">
-        <v>500000</v>
+        <v>537000</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>-500000</v>
+        <f t="shared" ref="D24:D51" si="4">B24-C24</f>
+        <v>48000</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <f ca="1">IFERROR(CHOOSE($F24,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>7</v>
+        <f t="shared" ref="F24:F58" ca="1" si="5">IFERROR(CHOOSE($F24,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1752,10 +1746,11 @@
         <v>0</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K24:K51" si="6">IF(G24=H24,"매우우수",IF(J24&gt;0,"불량", IF(I24/G24&lt;0.5,"우수","보통")))</f>
         <v>매우우수</v>
       </c>
       <c r="L24">
+        <f t="shared" ref="L24:L50" si="7">IF($D24&gt;=0,1,IF($N25="O",1,0))</f>
         <v>1</v>
       </c>
       <c r="M24" t="s">
@@ -1764,43 +1759,43 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
+        <v>300000</v>
+      </c>
+      <c r="B25">
+        <v>400000</v>
+      </c>
+      <c r="C25">
+        <v>300000</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="B25">
-        <v>585000</v>
-      </c>
-      <c r="C25">
-        <v>537000</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>48000</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <f ca="1">IFERROR(CHOOSE($F25,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
         <v>0</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="2"/>
-        <v>매우우수</v>
+        <f t="shared" si="6"/>
+        <v>우수</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M25" t="s">
@@ -1809,43 +1804,43 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="B26">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="C26">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <f ca="1">IFERROR(CHOOSE($F26,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="2"/>
-        <v>우수</v>
+        <f t="shared" si="6"/>
+        <v>보통</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M26" t="s">
@@ -1854,30 +1849,30 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="B27">
-        <v>600000</v>
+        <v>1600000</v>
       </c>
       <c r="C27">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <f t="shared" si="4"/>
+        <v>700000</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <f ca="1">IFERROR(CHOOSE($F27,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>3</v>
@@ -1886,11 +1881,11 @@
         <v>0</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>보통</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M27" t="s">
@@ -1899,43 +1894,43 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="B28">
-        <v>1600000</v>
+        <v>400000</v>
       </c>
       <c r="C28">
-        <v>900000</v>
+        <v>350000</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>700000</v>
+        <f t="shared" si="4"/>
+        <v>50000</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <f ca="1">IFERROR(CHOOSE($F28,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>보통</v>
+        <f t="shared" si="6"/>
+        <v>우수</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M28" t="s">
@@ -1944,43 +1939,43 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="B29">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="C29">
-        <v>350000</v>
+        <v>800000</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>50000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <f ca="1">IFERROR(CHOOSE($F29,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="2"/>
-        <v>우수</v>
+        <f t="shared" si="6"/>
+        <v>매우우수</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M29" t="s">
@@ -1992,27 +1987,27 @@
         <v>300000</v>
       </c>
       <c r="B30">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="C30">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>100000</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <f ca="1">IFERROR(CHOOSE($F30,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -2021,11 +2016,11 @@
         <v>0</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M30" t="s">
@@ -2037,40 +2032,40 @@
         <v>300000</v>
       </c>
       <c r="B31">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="C31">
-        <v>400000</v>
+        <v>210000</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <f t="shared" si="4"/>
+        <v>240000</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <f ca="1">IFERROR(CHOOSE($F31,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G31" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H31" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v>매우우수</v>
+        <f t="shared" si="6"/>
+        <v>보통</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M31" t="s">
@@ -2082,27 +2077,27 @@
         <v>300000</v>
       </c>
       <c r="B32">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="C32">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>240000</v>
+        <f t="shared" si="4"/>
+        <v>270000</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <f ca="1">IFERROR(CHOOSE($F32,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
@@ -2111,11 +2106,11 @@
         <v>0</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>보통</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M32" t="s">
@@ -2130,18 +2125,18 @@
         <v>500000</v>
       </c>
       <c r="C33">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>270000</v>
+        <f t="shared" si="4"/>
+        <v>100000</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <f ca="1">IFERROR(CHOOSE($F33,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
@@ -2156,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>보통</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M33" t="s">
@@ -2169,43 +2164,43 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="B34">
-        <v>500000</v>
+        <v>470000</v>
       </c>
       <c r="C34">
-        <v>400000</v>
+        <v>380000</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <f t="shared" si="4"/>
+        <v>90000</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <f ca="1">IFERROR(CHOOSE($F34,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v>보통</v>
+        <f t="shared" si="6"/>
+        <v>매우우수</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M34" t="s">
@@ -2214,30 +2209,30 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="B35">
-        <v>470000</v>
+        <v>1550000</v>
       </c>
       <c r="C35">
-        <v>380000</v>
+        <v>1400000</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>90000</v>
+        <f t="shared" si="4"/>
+        <v>150000</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <f ca="1">IFERROR(CHOOSE($F35,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2246,11 +2241,11 @@
         <v>0</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M35" t="s">
@@ -2262,40 +2257,40 @@
         <v>300000</v>
       </c>
       <c r="B36">
-        <v>1550000</v>
+        <v>1800000</v>
       </c>
       <c r="C36">
-        <v>1400000</v>
+        <v>1800000</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <f ca="1">IFERROR(CHOOSE($F36,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="2"/>
-        <v>매우우수</v>
+        <f t="shared" si="6"/>
+        <v>보통</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M36" t="s">
@@ -2307,40 +2302,40 @@
         <v>300000</v>
       </c>
       <c r="B37">
-        <v>1800000</v>
+        <v>220000</v>
       </c>
       <c r="C37">
-        <v>1800000</v>
+        <v>190000</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>30000</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <f ca="1">IFERROR(CHOOSE($F37,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="2"/>
-        <v>보통</v>
+        <f t="shared" si="6"/>
+        <v>매우우수</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M37" t="s">
@@ -2352,21 +2347,21 @@
         <v>300000</v>
       </c>
       <c r="B38">
-        <v>220000</v>
+        <v>292000</v>
       </c>
       <c r="C38">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="4"/>
+        <v>42000</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <f ca="1">IFERROR(CHOOSE($F38,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -2381,11 +2376,11 @@
         <v>0</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M38" t="s">
@@ -2397,27 +2392,27 @@
         <v>300000</v>
       </c>
       <c r="B39">
-        <v>292000</v>
+        <v>900000</v>
       </c>
       <c r="C39">
-        <v>250000</v>
+        <v>700000</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>42000</v>
+        <f t="shared" si="4"/>
+        <v>200000</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <f ca="1">IFERROR(CHOOSE($F39,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -2426,11 +2421,11 @@
         <v>0</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M39" t="s">
@@ -2442,27 +2437,27 @@
         <v>300000</v>
       </c>
       <c r="B40">
-        <v>900000</v>
+        <v>700000</v>
       </c>
       <c r="C40">
         <v>700000</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>200000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <f ca="1">IFERROR(CHOOSE($F40,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -2471,11 +2466,11 @@
         <v>0</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M40" t="s">
@@ -2487,44 +2482,44 @@
         <v>300000</v>
       </c>
       <c r="B41">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="C41">
-        <v>700000</v>
+        <v>630000</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>170000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
       </c>
       <c r="F41">
-        <f ca="1">IFERROR(CHOOSE($F41,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G41" s="3">
         <v>3</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="2"/>
-        <v>매우우수</v>
+        <f t="shared" si="6"/>
+        <v>불량</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -2532,40 +2527,40 @@
         <v>300000</v>
       </c>
       <c r="B42">
-        <v>800000</v>
+        <v>600000</v>
       </c>
       <c r="C42">
-        <v>630000</v>
+        <v>580000</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="F42">
-        <f ca="1">IFERROR(CHOOSE($F42,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="2"/>
-        <v>불량</v>
+        <f t="shared" si="6"/>
+        <v>매우우수</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M42" t="s">
@@ -2577,27 +2572,27 @@
         <v>300000</v>
       </c>
       <c r="B43">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="C43">
-        <v>580000</v>
+        <v>700000</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <f ca="1">IFERROR(CHOOSE($F43,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2606,11 +2601,11 @@
         <v>0</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M43" t="s">
@@ -2622,27 +2617,27 @@
         <v>300000</v>
       </c>
       <c r="B44">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="C44">
-        <v>700000</v>
+        <v>400000</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>100000</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <f ca="1">IFERROR(CHOOSE($F44,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G44" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2651,11 +2646,11 @@
         <v>0</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M44" t="s">
@@ -2664,24 +2659,24 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="B45">
-        <v>500000</v>
+        <v>585000</v>
       </c>
       <c r="C45">
-        <v>400000</v>
+        <v>527000</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <f t="shared" si="4"/>
+        <v>58000</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <f ca="1">IFERROR(CHOOSE($F45,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
@@ -2696,11 +2691,11 @@
         <v>0</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M45" t="s">
@@ -2709,30 +2704,30 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="B46">
-        <v>585000</v>
+        <v>950000</v>
       </c>
       <c r="C46">
-        <v>527000</v>
+        <v>800000</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>58000</v>
+        <f t="shared" si="4"/>
+        <v>150000</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <f ca="1">IFERROR(CHOOSE($F46,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2741,11 +2736,11 @@
         <v>0</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M46" t="s">
@@ -2757,44 +2752,44 @@
         <v>300000</v>
       </c>
       <c r="B47">
-        <v>950000</v>
+        <v>500000</v>
       </c>
       <c r="C47">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
       </c>
       <c r="F47">
-        <f ca="1">IFERROR(CHOOSE($F47,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="2"/>
-        <v>매우우수</v>
+        <f t="shared" si="6"/>
+        <v>보통</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -2802,40 +2797,40 @@
         <v>300000</v>
       </c>
       <c r="B48">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="C48">
-        <v>500000</v>
+        <v>650000</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="F48">
-        <f ca="1">IFERROR(CHOOSE($F48,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="2"/>
-        <v>보통</v>
+        <f t="shared" si="6"/>
+        <v>매우우수</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M48" t="s">
@@ -2847,21 +2842,21 @@
         <v>300000</v>
       </c>
       <c r="B49">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="C49">
-        <v>650000</v>
+        <v>900000</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>350000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <f ca="1">IFERROR(CHOOSE($F49,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -2876,11 +2871,11 @@
         <v>0</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M49" t="s">
@@ -2889,43 +2884,43 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="B50">
-        <v>900000</v>
+        <v>760000</v>
       </c>
       <c r="C50">
-        <v>900000</v>
+        <v>670000</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>90000</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <f ca="1">IFERROR(CHOOSE($F50,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M50" t="s">
@@ -2934,30 +2929,30 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="B51">
-        <v>760000</v>
+        <v>500000</v>
       </c>
       <c r="C51">
-        <v>670000</v>
+        <v>700000</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>90000</v>
+        <f t="shared" si="4"/>
+        <v>-200000</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f ca="1">IFERROR(CHOOSE($F51,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2966,12 +2961,11 @@
         <v>0</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>매우우수</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="s">
         <v>63</v>
@@ -2985,24 +2979,24 @@
         <v>500000</v>
       </c>
       <c r="C52">
-        <v>700000</v>
+        <v>230000</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
+        <f t="shared" ref="D52:D58" si="8">B52-C52</f>
+        <v>270000</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <f ca="1">IFERROR(CHOOSE($F52,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3011,11 +3005,12 @@
         <v>0</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K52:K58" si="9">IF(G52=H52,"매우우수",IF(J52&gt;0,"불량", IF(I52/G52&lt;0.5,"우수","보통")))</f>
         <v>매우우수</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <f t="shared" ref="L52:L58" si="10">IF($D52&gt;=0,1,IF($N53="O",1,0))</f>
+        <v>1</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
@@ -3023,30 +3018,30 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="B53">
-        <v>500000</v>
+        <v>462320</v>
       </c>
       <c r="C53">
-        <v>230000</v>
+        <v>410000</v>
       </c>
       <c r="D53">
-        <f>B53-C53</f>
-        <v>270000</v>
+        <f t="shared" si="8"/>
+        <v>52320</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <f ca="1">IFERROR(CHOOSE($F53,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3055,11 +3050,11 @@
         <v>0</v>
       </c>
       <c r="K53" t="str">
-        <f>IF(G53=H53,"매우우수",IF(J53&gt;0,"불량", IF(I53/G53&lt;0.5,"우수","보통")))</f>
+        <f t="shared" si="9"/>
         <v>매우우수</v>
       </c>
       <c r="L53">
-        <f>IF($D53&gt;=0,1,IF($N53="O",1,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M53" t="s">
@@ -3068,43 +3063,43 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="B54">
-        <v>462320</v>
+        <v>700000</v>
       </c>
       <c r="C54">
-        <v>410000</v>
+        <v>700000</v>
       </c>
       <c r="D54">
-        <f>B54-C54</f>
-        <v>52320</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54">
-        <f ca="1">IFERROR(CHOOSE($F54,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="str">
-        <f>IF(G54=H54,"매우우수",IF(J54&gt;0,"불량", IF(I54/G54&lt;0.5,"우수","보통")))</f>
-        <v>매우우수</v>
+        <f t="shared" si="9"/>
+        <v>우수</v>
       </c>
       <c r="L54">
-        <f>IF($D54&gt;=0,1,IF($N54="O",1,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M54" t="s">
@@ -3116,40 +3111,40 @@
         <v>300000</v>
       </c>
       <c r="B55">
-        <v>700000</v>
+        <v>1100000</v>
       </c>
       <c r="C55">
-        <v>700000</v>
+        <v>90000</v>
       </c>
       <c r="D55">
-        <f>B55-C55</f>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1010000</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
       </c>
       <c r="F55">
-        <f ca="1">IFERROR(CHOOSE($F55,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(G55=H55,"매우우수",IF(J55&gt;0,"불량", IF(I55/G55&lt;0.5,"우수","보통")))</f>
-        <v>우수</v>
+        <f t="shared" si="9"/>
+        <v>매우우수</v>
       </c>
       <c r="L55">
-        <f>IF($D55&gt;=0,1,IF($N55="O",1,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M55" t="s">
@@ -3161,40 +3156,40 @@
         <v>300000</v>
       </c>
       <c r="B56">
-        <v>1100000</v>
+        <v>3100000</v>
       </c>
       <c r="C56">
-        <v>90000</v>
+        <v>410000</v>
       </c>
       <c r="D56">
-        <f>B56-C56</f>
-        <v>1010000</v>
-      </c>
-      <c r="E56" t="s">
-        <v>52</v>
+        <f t="shared" si="8"/>
+        <v>2690000</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
       </c>
       <c r="F56">
-        <f ca="1">IFERROR(CHOOSE($F56,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(G56=H56,"매우우수",IF(J56&gt;0,"불량", IF(I56/G56&lt;0.5,"우수","보통")))</f>
-        <v>매우우수</v>
+        <f t="shared" si="9"/>
+        <v>불량</v>
       </c>
       <c r="L56">
-        <f>IF($D56&gt;=0,1,IF($N56="O",1,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M56" t="s">
@@ -3206,40 +3201,40 @@
         <v>300000</v>
       </c>
       <c r="B57">
-        <v>3100000</v>
+        <v>1850000</v>
       </c>
       <c r="C57">
-        <v>410000</v>
+        <v>390000</v>
       </c>
       <c r="D57">
-        <f>B57-C57</f>
-        <v>2690000</v>
+        <f t="shared" si="8"/>
+        <v>1460000</v>
       </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>4</v>
       </c>
-      <c r="F57">
-        <f ca="1">IFERROR(CHOOSE($F57,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="str">
-        <f>IF(G57=H57,"매우우수",IF(J57&gt;0,"불량", IF(I57/G57&lt;0.5,"우수","보통")))</f>
-        <v>불량</v>
+        <f t="shared" si="9"/>
+        <v>보통</v>
       </c>
       <c r="L57">
-        <f>IF($D57&gt;=0,1,IF($N57="O",1,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M57" t="s">
@@ -3251,95 +3246,48 @@
         <v>300000</v>
       </c>
       <c r="B58">
-        <v>1850000</v>
+        <v>450000</v>
       </c>
       <c r="C58">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="D58">
-        <f>B58-C58</f>
-        <v>1460000</v>
+        <f t="shared" si="8"/>
+        <v>150000</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <f ca="1">IFERROR(CHOOSE($F58,5,1,2,2,3,4,5,6,7),"합의금")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
       <c r="G58">
         <v>6</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(G58=H58,"매우우수",IF(J58&gt;0,"불량", IF(I58/G58&lt;0.5,"우수","보통")))</f>
-        <v>보통</v>
+        <f t="shared" si="9"/>
+        <v>우수</v>
       </c>
       <c r="L58">
-        <f>IF($D58&gt;=0,1,IF($N58="O",1,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>300000</v>
-      </c>
-      <c r="B59">
-        <v>450000</v>
-      </c>
-      <c r="C59">
-        <v>300000</v>
-      </c>
-      <c r="D59">
-        <f>B59-C59</f>
-        <v>150000</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f ca="1">IFERROR(CHOOSE($F59,5,1,2,2,3,4,5,6,7),"합의금")</f>
-        <v>6</v>
-      </c>
-      <c r="G59">
-        <v>6</v>
-      </c>
-      <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="str">
-        <f>IF(G59=H59,"매우우수",IF(J59&gt;0,"불량", IF(I59/G59&lt;0.5,"우수","보통")))</f>
-        <v>우수</v>
-      </c>
-      <c r="L59">
-        <f>IF($D59&gt;=0,1,IF($N59="O",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="N62" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="N62" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
